--- a/data/pca/factorExposure/factorExposure_2014-11-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.000456077340449651</v>
+        <v>0.009073472314984907</v>
       </c>
       <c r="C2">
-        <v>0.07982513997334587</v>
+        <v>-0.0727307112174321</v>
       </c>
       <c r="D2">
-        <v>-0.1396241942322061</v>
+        <v>0.005824807026246493</v>
       </c>
       <c r="E2">
-        <v>-0.1553481761042223</v>
+        <v>-0.1780796259757518</v>
       </c>
       <c r="F2">
-        <v>0.1681276036310134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.04619171746202913</v>
+      </c>
+      <c r="G2">
+        <v>-0.06439908406158923</v>
+      </c>
+      <c r="H2">
+        <v>-0.06084268010301988</v>
+      </c>
+      <c r="I2">
+        <v>0.1005721808422513</v>
+      </c>
+      <c r="J2">
+        <v>0.2296074577266799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0148883749204168</v>
+        <v>0.012072694168452</v>
       </c>
       <c r="C4">
-        <v>0.1522669191596445</v>
+        <v>-0.1531330285496873</v>
       </c>
       <c r="D4">
-        <v>-0.06237518297126868</v>
+        <v>-0.02616114776291655</v>
       </c>
       <c r="E4">
-        <v>-0.07629314762973437</v>
+        <v>-0.09885303153642493</v>
       </c>
       <c r="F4">
-        <v>-0.05139706540361658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06220446048069992</v>
+      </c>
+      <c r="G4">
+        <v>-0.004387665936593746</v>
+      </c>
+      <c r="H4">
+        <v>-0.1031352131686771</v>
+      </c>
+      <c r="I4">
+        <v>-0.02792922971166038</v>
+      </c>
+      <c r="J4">
+        <v>0.1410881556152297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01760606363982155</v>
+        <v>0.0323378301281636</v>
       </c>
       <c r="C6">
-        <v>0.0714191887615034</v>
+        <v>-0.07258206567797786</v>
       </c>
       <c r="D6">
-        <v>-0.05592075727211753</v>
+        <v>-0.009293211382208271</v>
       </c>
       <c r="E6">
-        <v>-0.1006541479205655</v>
+        <v>-0.1117219642198204</v>
       </c>
       <c r="F6">
-        <v>-0.02221438073181265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03016394225134707</v>
+      </c>
+      <c r="G6">
+        <v>0.04843534426370241</v>
+      </c>
+      <c r="H6">
+        <v>-0.03376515595925374</v>
+      </c>
+      <c r="I6">
+        <v>0.046828315661749</v>
+      </c>
+      <c r="J6">
+        <v>0.02322083376803839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01706031069935025</v>
+        <v>0.006315345020785624</v>
       </c>
       <c r="C7">
-        <v>0.05152900384432912</v>
+        <v>-0.06799449288314165</v>
       </c>
       <c r="D7">
-        <v>-0.02703942542886176</v>
+        <v>-0.004555172849954857</v>
       </c>
       <c r="E7">
-        <v>-0.06097402522153193</v>
+        <v>-0.04842597619540626</v>
       </c>
       <c r="F7">
-        <v>-0.01454300258253257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01947961671122937</v>
+      </c>
+      <c r="G7">
+        <v>0.06387042085022857</v>
+      </c>
+      <c r="H7">
+        <v>-0.07962269111264783</v>
+      </c>
+      <c r="I7">
+        <v>0.005943861869140575</v>
+      </c>
+      <c r="J7">
+        <v>0.03712116275285064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01472222447493774</v>
+        <v>-0.008785657865008215</v>
       </c>
       <c r="C8">
-        <v>0.0778498120898642</v>
+        <v>-0.07232958043910935</v>
       </c>
       <c r="D8">
-        <v>-0.04738249354367823</v>
+        <v>-0.02665358855866743</v>
       </c>
       <c r="E8">
-        <v>-0.1277175811266989</v>
+        <v>-0.08864069292223367</v>
       </c>
       <c r="F8">
-        <v>0.06603564880444249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0252381906743828</v>
+      </c>
+      <c r="G8">
+        <v>-0.05453200305524136</v>
+      </c>
+      <c r="H8">
+        <v>-0.02860994823094041</v>
+      </c>
+      <c r="I8">
+        <v>0.006773152367823572</v>
+      </c>
+      <c r="J8">
+        <v>0.01335990652635804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.006703336725459131</v>
+        <v>0.007057765149762443</v>
       </c>
       <c r="C9">
-        <v>0.129653812691315</v>
+        <v>-0.118334070596881</v>
       </c>
       <c r="D9">
-        <v>-0.03731994815756404</v>
+        <v>-0.02004981398323047</v>
       </c>
       <c r="E9">
-        <v>-0.06456761615815021</v>
+        <v>-0.06046388907762276</v>
       </c>
       <c r="F9">
-        <v>-0.03804377644251949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01052776191508967</v>
+      </c>
+      <c r="G9">
+        <v>0.004408222469978415</v>
+      </c>
+      <c r="H9">
+        <v>-0.09888913915115514</v>
+      </c>
+      <c r="I9">
+        <v>0.001604573058212553</v>
+      </c>
+      <c r="J9">
+        <v>0.06283914423111663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2602934482833141</v>
+        <v>0.2517445273897762</v>
       </c>
       <c r="C10">
-        <v>-0.08478129613507587</v>
+        <v>0.08082076318660816</v>
       </c>
       <c r="D10">
-        <v>-0.03985468887763806</v>
+        <v>0.003276759273246126</v>
       </c>
       <c r="E10">
-        <v>0.0406408149506875</v>
+        <v>-0.01226622217935295</v>
       </c>
       <c r="F10">
-        <v>-0.006776904331540637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01432054090379868</v>
+      </c>
+      <c r="G10">
+        <v>0.01600319831579678</v>
+      </c>
+      <c r="H10">
+        <v>-0.03015268146338136</v>
+      </c>
+      <c r="I10">
+        <v>-0.1661188463237425</v>
+      </c>
+      <c r="J10">
+        <v>-0.09076400594396147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.002849367814552269</v>
+        <v>0.01010456924076411</v>
       </c>
       <c r="C11">
-        <v>0.0649861790252087</v>
+        <v>-0.08104055482442271</v>
       </c>
       <c r="D11">
-        <v>-0.01342697909361492</v>
+        <v>-0.02016817187588535</v>
       </c>
       <c r="E11">
-        <v>-0.03445250563812313</v>
+        <v>-0.01911821772479447</v>
       </c>
       <c r="F11">
-        <v>-0.0736013667745795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.009513990062182506</v>
+      </c>
+      <c r="G11">
+        <v>0.03349844920374719</v>
+      </c>
+      <c r="H11">
+        <v>-0.02685658930305106</v>
+      </c>
+      <c r="I11">
+        <v>-0.004836451918993036</v>
+      </c>
+      <c r="J11">
+        <v>-0.0350258280824154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.003692675312349839</v>
+        <v>0.01138395802746121</v>
       </c>
       <c r="C12">
-        <v>0.06061946499083082</v>
+        <v>-0.06307789583544257</v>
       </c>
       <c r="D12">
-        <v>-0.01059867710704734</v>
+        <v>-0.00880907090291891</v>
       </c>
       <c r="E12">
-        <v>-0.0246153927952522</v>
+        <v>-0.01706846506256638</v>
       </c>
       <c r="F12">
-        <v>-0.05768433951494675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0202482997880723</v>
+      </c>
+      <c r="G12">
+        <v>0.03749845080996853</v>
+      </c>
+      <c r="H12">
+        <v>-0.0286518224675182</v>
+      </c>
+      <c r="I12">
+        <v>-0.009563325778745111</v>
+      </c>
+      <c r="J12">
+        <v>-0.008528577014890773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.00730508318195855</v>
+        <v>0.001566987958159114</v>
       </c>
       <c r="C13">
-        <v>0.09028260313401271</v>
+        <v>-0.1118599059707465</v>
       </c>
       <c r="D13">
-        <v>-0.05985278362435653</v>
+        <v>0.0005476389480393721</v>
       </c>
       <c r="E13">
-        <v>-0.1300635216772843</v>
+        <v>-0.145513636937514</v>
       </c>
       <c r="F13">
-        <v>-0.1252836742329735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.102538858821019</v>
+      </c>
+      <c r="G13">
+        <v>0.08515894494139194</v>
+      </c>
+      <c r="H13">
+        <v>-0.07546164698594103</v>
+      </c>
+      <c r="I13">
+        <v>-0.1078634979640509</v>
+      </c>
+      <c r="J13">
+        <v>-0.04815518001954894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.005583510940197239</v>
+        <v>0.008257153653212003</v>
       </c>
       <c r="C14">
-        <v>0.06144292156719806</v>
+        <v>-0.07891394298474659</v>
       </c>
       <c r="D14">
-        <v>-0.0243012621147171</v>
+        <v>-0.02759218231079659</v>
       </c>
       <c r="E14">
-        <v>-0.06142278584207771</v>
+        <v>-0.08404089700402251</v>
       </c>
       <c r="F14">
-        <v>-0.04926309743974031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03811116151411192</v>
+      </c>
+      <c r="G14">
+        <v>0.1104547408153773</v>
+      </c>
+      <c r="H14">
+        <v>-0.1825340503629062</v>
+      </c>
+      <c r="I14">
+        <v>0.0218428860789919</v>
+      </c>
+      <c r="J14">
+        <v>-0.1635001918924171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0003678619267407513</v>
+        <v>-0.001169781759030769</v>
       </c>
       <c r="C15">
-        <v>0.07290951350283278</v>
+        <v>-0.07234945275067775</v>
       </c>
       <c r="D15">
-        <v>-0.04301521711101888</v>
+        <v>-0.01107502459457565</v>
       </c>
       <c r="E15">
-        <v>-0.0947328530994601</v>
+        <v>-0.06474029416634154</v>
       </c>
       <c r="F15">
-        <v>-0.02894349457968312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.004710505910277827</v>
+      </c>
+      <c r="G15">
+        <v>0.03737837255746005</v>
+      </c>
+      <c r="H15">
+        <v>-0.06072689573525734</v>
+      </c>
+      <c r="I15">
+        <v>0.009129197440634486</v>
+      </c>
+      <c r="J15">
+        <v>-0.04821560964398416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.006971751168959057</v>
+        <v>0.01065350822902607</v>
       </c>
       <c r="C16">
-        <v>0.05986773429294501</v>
+        <v>-0.06752710364826543</v>
       </c>
       <c r="D16">
-        <v>-0.01548580350753647</v>
+        <v>-0.009836659067855715</v>
       </c>
       <c r="E16">
-        <v>-0.02243005616290936</v>
+        <v>-0.01180590992068513</v>
       </c>
       <c r="F16">
-        <v>-0.06005779080120049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.001518410009628381</v>
+      </c>
+      <c r="G16">
+        <v>0.03293376685897149</v>
+      </c>
+      <c r="H16">
+        <v>-0.02626948833777572</v>
+      </c>
+      <c r="I16">
+        <v>-0.008487016476014171</v>
+      </c>
+      <c r="J16">
+        <v>-0.008599404216984692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.001141472231428927</v>
+        <v>0.005622170472505369</v>
       </c>
       <c r="C20">
-        <v>0.07191196089445519</v>
+        <v>-0.08569486775684158</v>
       </c>
       <c r="D20">
-        <v>-0.04302032494145642</v>
+        <v>-0.001485401503080759</v>
       </c>
       <c r="E20">
-        <v>-0.05156632255017678</v>
+        <v>-0.03778137348835248</v>
       </c>
       <c r="F20">
-        <v>-0.0990953053767122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01691458943631073</v>
+      </c>
+      <c r="G20">
+        <v>0.07368627160664007</v>
+      </c>
+      <c r="H20">
+        <v>-0.05619034344179955</v>
+      </c>
+      <c r="I20">
+        <v>0.007192571082316133</v>
+      </c>
+      <c r="J20">
+        <v>0.005548211426853771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-7.868614382330511e-05</v>
+        <v>0.007556318168573772</v>
       </c>
       <c r="C21">
-        <v>0.09238382890293062</v>
+        <v>-0.0847908699421535</v>
       </c>
       <c r="D21">
-        <v>-0.07621706855877031</v>
+        <v>-0.006822495573931202</v>
       </c>
       <c r="E21">
-        <v>-0.04562265166466867</v>
+        <v>-0.07313109627716673</v>
       </c>
       <c r="F21">
-        <v>0.006554414321505733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07717706229639691</v>
+      </c>
+      <c r="G21">
+        <v>0.0176684608400084</v>
+      </c>
+      <c r="H21">
+        <v>-0.1554063777252284</v>
+      </c>
+      <c r="I21">
+        <v>-0.03935018354787006</v>
+      </c>
+      <c r="J21">
+        <v>-0.04028011718276417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01265677799079955</v>
+        <v>-0.01546587326057527</v>
       </c>
       <c r="C22">
-        <v>0.1329945906161502</v>
+        <v>-0.1434521122006615</v>
       </c>
       <c r="D22">
-        <v>-0.2476327362269407</v>
+        <v>0.03008931382412481</v>
       </c>
       <c r="E22">
-        <v>-0.2110708382622177</v>
+        <v>-0.3937168492774941</v>
       </c>
       <c r="F22">
-        <v>0.191234898226756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.1361907428179851</v>
+      </c>
+      <c r="G22">
+        <v>-0.2658845564428898</v>
+      </c>
+      <c r="H22">
+        <v>0.3642035425482977</v>
+      </c>
+      <c r="I22">
+        <v>-0.04077575788309687</v>
+      </c>
+      <c r="J22">
+        <v>-0.2125964626827518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01316935987065756</v>
+        <v>-0.01189533178181471</v>
       </c>
       <c r="C23">
-        <v>0.1345737282685639</v>
+        <v>-0.1479418914128708</v>
       </c>
       <c r="D23">
-        <v>-0.2461195227812518</v>
+        <v>0.03241663715030912</v>
       </c>
       <c r="E23">
-        <v>-0.2091635288134884</v>
+        <v>-0.3842803349669112</v>
       </c>
       <c r="F23">
-        <v>0.190971826041304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1294629408309618</v>
+      </c>
+      <c r="G23">
+        <v>-0.2569926444004877</v>
+      </c>
+      <c r="H23">
+        <v>0.3402625263726916</v>
+      </c>
+      <c r="I23">
+        <v>-0.04404912298774658</v>
+      </c>
+      <c r="J23">
+        <v>-0.2023882283816349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0004060666048116033</v>
+        <v>0.01091748680203745</v>
       </c>
       <c r="C24">
-        <v>0.07655988023076117</v>
+        <v>-0.07758262911364808</v>
       </c>
       <c r="D24">
-        <v>-0.005369795751321201</v>
+        <v>-0.02459138250891548</v>
       </c>
       <c r="E24">
-        <v>-0.03984322526651127</v>
+        <v>-0.02105424489565901</v>
       </c>
       <c r="F24">
-        <v>-0.06152149445479525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003033303356521969</v>
+      </c>
+      <c r="G24">
+        <v>0.0379423639012841</v>
+      </c>
+      <c r="H24">
+        <v>-0.038256416170369</v>
+      </c>
+      <c r="I24">
+        <v>-0.001110560124260365</v>
+      </c>
+      <c r="J24">
+        <v>-0.01195765946795837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.00807417297812821</v>
+        <v>0.01707135013193392</v>
       </c>
       <c r="C25">
-        <v>0.07310495308746112</v>
+        <v>-0.07602052917602381</v>
       </c>
       <c r="D25">
-        <v>-0.01071099065022389</v>
+        <v>-0.01522207636280321</v>
       </c>
       <c r="E25">
-        <v>-0.01985921643848645</v>
+        <v>-0.01639044586121337</v>
       </c>
       <c r="F25">
-        <v>-0.0586087924711977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.007185226936301795</v>
+      </c>
+      <c r="G25">
+        <v>0.0315977654820427</v>
+      </c>
+      <c r="H25">
+        <v>-0.02877000832575752</v>
+      </c>
+      <c r="I25">
+        <v>-0.01640897830662555</v>
+      </c>
+      <c r="J25">
+        <v>-0.03477955097219855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.004229039079329683</v>
+        <v>0.01655142025991952</v>
       </c>
       <c r="C26">
-        <v>0.05401483131606397</v>
+        <v>-0.06418476964187986</v>
       </c>
       <c r="D26">
-        <v>-0.01441214327981989</v>
+        <v>-0.04499931100961486</v>
       </c>
       <c r="E26">
-        <v>-0.06054545608431199</v>
+        <v>-0.03612899762040568</v>
       </c>
       <c r="F26">
-        <v>-0.03046316748950124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006455582617711948</v>
+      </c>
+      <c r="G26">
+        <v>0.0322515635043259</v>
+      </c>
+      <c r="H26">
+        <v>-0.1176959338344423</v>
+      </c>
+      <c r="I26">
+        <v>-0.01871952335522993</v>
+      </c>
+      <c r="J26">
+        <v>0.0759460740633494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3323066470066703</v>
+        <v>0.316154537734933</v>
       </c>
       <c r="C28">
-        <v>-0.09225715607760032</v>
+        <v>0.1010320484959815</v>
       </c>
       <c r="D28">
-        <v>-0.02973508579878351</v>
+        <v>0.01674999529406862</v>
       </c>
       <c r="E28">
-        <v>0.05881491271673307</v>
+        <v>-0.01731513964976428</v>
       </c>
       <c r="F28">
-        <v>-0.006058848193988659</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04498742844647755</v>
+      </c>
+      <c r="G28">
+        <v>-0.0623592146886567</v>
+      </c>
+      <c r="H28">
+        <v>-0.08237294218415399</v>
+      </c>
+      <c r="I28">
+        <v>-0.1781999576356204</v>
+      </c>
+      <c r="J28">
+        <v>0.04820485691732473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.00177893159065597</v>
+        <v>0.0056152231089724</v>
       </c>
       <c r="C29">
-        <v>0.06011538751241625</v>
+        <v>-0.08171568071328515</v>
       </c>
       <c r="D29">
-        <v>-0.03974566318345419</v>
+        <v>-0.02211227494946257</v>
       </c>
       <c r="E29">
-        <v>-0.09515225897194868</v>
+        <v>-0.1250431126157707</v>
       </c>
       <c r="F29">
-        <v>-0.0833182286190529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.05124607810437556</v>
+      </c>
+      <c r="G29">
+        <v>0.1623681454037685</v>
+      </c>
+      <c r="H29">
+        <v>-0.2533737553236131</v>
+      </c>
+      <c r="I29">
+        <v>0.04521391253773906</v>
+      </c>
+      <c r="J29">
+        <v>-0.2384973404932308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01533549241720953</v>
+        <v>0.01810857615465435</v>
       </c>
       <c r="C30">
-        <v>0.1754507884923702</v>
+        <v>-0.1570512675590817</v>
       </c>
       <c r="D30">
-        <v>-0.03881852479426478</v>
+        <v>-0.0320609894071048</v>
       </c>
       <c r="E30">
-        <v>-0.0861307837442386</v>
+        <v>-0.07337380318052525</v>
       </c>
       <c r="F30">
-        <v>-0.00728415688811875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0209313735254676</v>
+      </c>
+      <c r="G30">
+        <v>-0.01454360499675726</v>
+      </c>
+      <c r="H30">
+        <v>-0.02575395848129131</v>
+      </c>
+      <c r="I30">
+        <v>0.0160255583083599</v>
+      </c>
+      <c r="J30">
+        <v>0.08337372005553549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.01287177129701828</v>
+        <v>0.00382392811759697</v>
       </c>
       <c r="C31">
-        <v>0.1005631464178915</v>
+        <v>-0.09971487746012468</v>
       </c>
       <c r="D31">
-        <v>0.0367776185157527</v>
+        <v>-0.03117807287622479</v>
       </c>
       <c r="E31">
-        <v>0.006941360150039257</v>
+        <v>0.01459732356704184</v>
       </c>
       <c r="F31">
-        <v>0.02075338631884291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001755521065034226</v>
+      </c>
+      <c r="G31">
+        <v>-0.02617597069361727</v>
+      </c>
+      <c r="H31">
+        <v>-0.04984736219368784</v>
+      </c>
+      <c r="I31">
+        <v>-0.03508808037768414</v>
+      </c>
+      <c r="J31">
+        <v>-0.05103527927694286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02439664564767673</v>
+        <v>0.02210670206747255</v>
       </c>
       <c r="C32">
-        <v>0.07708966109248307</v>
+        <v>-0.06850490028926923</v>
       </c>
       <c r="D32">
-        <v>-0.1100754712214692</v>
+        <v>0.01067141819887789</v>
       </c>
       <c r="E32">
-        <v>-0.09025702564681838</v>
+        <v>-0.1278454693126621</v>
       </c>
       <c r="F32">
-        <v>-0.02470752693411992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0342517380886303</v>
+      </c>
+      <c r="G32">
+        <v>0.02512833390944646</v>
+      </c>
+      <c r="H32">
+        <v>-0.108327556201733</v>
+      </c>
+      <c r="I32">
+        <v>-0.2335655488245</v>
+      </c>
+      <c r="J32">
+        <v>0.0482384807397969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.001042903430945529</v>
+        <v>0.009172872343717914</v>
       </c>
       <c r="C33">
-        <v>0.09359068919829287</v>
+        <v>-0.1115177319727463</v>
       </c>
       <c r="D33">
-        <v>-0.01475141030187027</v>
+        <v>-0.01568550621656964</v>
       </c>
       <c r="E33">
-        <v>-0.0566537523368287</v>
+        <v>-0.0493115879923355</v>
       </c>
       <c r="F33">
-        <v>-0.03666973190313824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.003705499527649815</v>
+      </c>
+      <c r="G33">
+        <v>0.03694717290651672</v>
+      </c>
+      <c r="H33">
+        <v>-0.05153909176587832</v>
+      </c>
+      <c r="I33">
+        <v>-0.02663672540893207</v>
+      </c>
+      <c r="J33">
+        <v>-0.01526704980340628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0005419874569882199</v>
+        <v>0.0116128584837894</v>
       </c>
       <c r="C34">
-        <v>0.05806394268996386</v>
+        <v>-0.05645982118594415</v>
       </c>
       <c r="D34">
-        <v>-0.001517640387457367</v>
+        <v>-0.01344585929849201</v>
       </c>
       <c r="E34">
-        <v>-0.01729092166618141</v>
+        <v>-0.006070543040574861</v>
       </c>
       <c r="F34">
-        <v>-0.0464320749705318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.008461709552685116</v>
+      </c>
+      <c r="G34">
+        <v>0.02875374165519827</v>
+      </c>
+      <c r="H34">
+        <v>0.0006886679102269748</v>
+      </c>
+      <c r="I34">
+        <v>-0.01998477719327829</v>
+      </c>
+      <c r="J34">
+        <v>-0.01590929988024574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001785568657650187</v>
+        <v>0.006125698876144791</v>
       </c>
       <c r="C35">
-        <v>0.009601124701373602</v>
+        <v>-0.03665851044493607</v>
       </c>
       <c r="D35">
-        <v>-0.008493283955749862</v>
+        <v>-0.005852650876828377</v>
       </c>
       <c r="E35">
-        <v>-0.01093413908462249</v>
+        <v>-0.0417205457108349</v>
       </c>
       <c r="F35">
-        <v>-0.01776079540738359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.0109083103766934</v>
+      </c>
+      <c r="G35">
+        <v>0.06733221868058592</v>
+      </c>
+      <c r="H35">
+        <v>-0.1226820638205568</v>
+      </c>
+      <c r="I35">
+        <v>-0.005756149386551183</v>
+      </c>
+      <c r="J35">
+        <v>-0.1748781496887394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.004202316755393057</v>
+        <v>0.009510805737050369</v>
       </c>
       <c r="C36">
-        <v>0.04420361406848562</v>
+        <v>-0.04936127358473243</v>
       </c>
       <c r="D36">
-        <v>-0.01165024267149907</v>
+        <v>-0.03177196814286001</v>
       </c>
       <c r="E36">
-        <v>-0.06749995547132691</v>
+        <v>-0.04463163156921343</v>
       </c>
       <c r="F36">
-        <v>-0.02298835865865784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002356726977503392</v>
+      </c>
+      <c r="G36">
+        <v>0.02492455305652883</v>
+      </c>
+      <c r="H36">
+        <v>-0.06559048142194596</v>
+      </c>
+      <c r="I36">
+        <v>-0.007541022905758532</v>
+      </c>
+      <c r="J36">
+        <v>0.02340928529116103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.009918733450975183</v>
+        <v>0.007381246975366093</v>
       </c>
       <c r="C38">
-        <v>0.05037397625245896</v>
+        <v>-0.06603750455820705</v>
       </c>
       <c r="D38">
-        <v>-0.01854557771223747</v>
+        <v>-0.02045162515636402</v>
       </c>
       <c r="E38">
-        <v>-0.0549732421042406</v>
+        <v>-0.04755097239439931</v>
       </c>
       <c r="F38">
-        <v>-0.01096347008426734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04464219518016256</v>
+      </c>
+      <c r="G38">
+        <v>0.02160018136044116</v>
+      </c>
+      <c r="H38">
+        <v>-0.05403225593476452</v>
+      </c>
+      <c r="I38">
+        <v>-0.03140425834885024</v>
+      </c>
+      <c r="J38">
+        <v>-0.05000604161412481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.00127899278310054</v>
+        <v>0.008015348721431295</v>
       </c>
       <c r="C39">
-        <v>0.1342319940116316</v>
+        <v>-0.131568987508261</v>
       </c>
       <c r="D39">
-        <v>-0.02773470066030647</v>
+        <v>-0.03456911183155733</v>
       </c>
       <c r="E39">
-        <v>-0.06199253722747605</v>
+        <v>-0.03178922784147755</v>
       </c>
       <c r="F39">
-        <v>-0.07105701919925667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01724996412814659</v>
+      </c>
+      <c r="G39">
+        <v>0.05580658278643748</v>
+      </c>
+      <c r="H39">
+        <v>-0.03603485483829436</v>
+      </c>
+      <c r="I39">
+        <v>0.03596331507071847</v>
+      </c>
+      <c r="J39">
+        <v>0.004694240323374659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.00202852314336461</v>
+        <v>0.01090887452527378</v>
       </c>
       <c r="C40">
-        <v>0.02798811998656363</v>
+        <v>-0.05890203015572603</v>
       </c>
       <c r="D40">
-        <v>-0.03884640691134104</v>
+        <v>-0.008949692223547388</v>
       </c>
       <c r="E40">
-        <v>-0.1190153194020388</v>
+        <v>-0.1187675032078078</v>
       </c>
       <c r="F40">
-        <v>-0.01875432346943353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0232350062837175</v>
+      </c>
+      <c r="G40">
+        <v>0.102525476016216</v>
+      </c>
+      <c r="H40">
+        <v>0.01802786727391749</v>
+      </c>
+      <c r="I40">
+        <v>-0.01744378467873691</v>
+      </c>
+      <c r="J40">
+        <v>-0.1694196718009417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.007959617228746883</v>
+        <v>0.01847720718426508</v>
       </c>
       <c r="C41">
-        <v>0.02118803349547989</v>
+        <v>-0.04902737193670066</v>
       </c>
       <c r="D41">
-        <v>7.997139068609343e-05</v>
+        <v>-0.007313096133210682</v>
       </c>
       <c r="E41">
-        <v>0.007215571050085453</v>
+        <v>0.001553581293836205</v>
       </c>
       <c r="F41">
-        <v>0.01335177036997444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007087109493234447</v>
+      </c>
+      <c r="G41">
+        <v>0.01219391253753383</v>
+      </c>
+      <c r="H41">
+        <v>-0.03322867313749228</v>
+      </c>
+      <c r="I41">
+        <v>-0.04189046992061904</v>
+      </c>
+      <c r="J41">
+        <v>-0.06154447145710146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.004200590123231988</v>
+        <v>0.01004492148133301</v>
       </c>
       <c r="C43">
-        <v>0.01710377391263726</v>
+        <v>-0.04386318449916675</v>
       </c>
       <c r="D43">
-        <v>-0.01172488908323743</v>
+        <v>-0.01640160164348043</v>
       </c>
       <c r="E43">
-        <v>-0.03145993812826852</v>
+        <v>-0.02097708763249488</v>
       </c>
       <c r="F43">
-        <v>-0.03212319605922907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01422903645527081</v>
+      </c>
+      <c r="G43">
+        <v>0.03186924848054612</v>
+      </c>
+      <c r="H43">
+        <v>-0.04392528030006689</v>
+      </c>
+      <c r="I43">
+        <v>-0.01507881899105192</v>
+      </c>
+      <c r="J43">
+        <v>-0.04459348732432441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01453769387511867</v>
+        <v>0.005174480220422726</v>
       </c>
       <c r="C44">
-        <v>0.08009934599617505</v>
+        <v>-0.08501716872783438</v>
       </c>
       <c r="D44">
-        <v>-0.05347394334092904</v>
+        <v>-0.03596632783501304</v>
       </c>
       <c r="E44">
-        <v>-0.1024201103622046</v>
+        <v>-0.09727247769798894</v>
       </c>
       <c r="F44">
-        <v>-0.02735545036528365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.008285872132817836</v>
+      </c>
+      <c r="G44">
+        <v>0.026514845008461</v>
+      </c>
+      <c r="H44">
+        <v>-0.0220187087808313</v>
+      </c>
+      <c r="I44">
+        <v>0.04363853283467816</v>
+      </c>
+      <c r="J44">
+        <v>0.04056101327090404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.01451756090080222</v>
+        <v>-0.004090425460678662</v>
       </c>
       <c r="C46">
-        <v>0.06723449178467329</v>
+        <v>-0.06948495263329819</v>
       </c>
       <c r="D46">
-        <v>-0.01763497268223941</v>
+        <v>-0.02482936593908816</v>
       </c>
       <c r="E46">
-        <v>-0.079590062333323</v>
+        <v>-0.05030414505438567</v>
       </c>
       <c r="F46">
-        <v>-0.06739107603398685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.005171872809990821</v>
+      </c>
+      <c r="G46">
+        <v>0.07537958995529714</v>
+      </c>
+      <c r="H46">
+        <v>-0.1175263223472141</v>
+      </c>
+      <c r="I46">
+        <v>0.006612151123577464</v>
+      </c>
+      <c r="J46">
+        <v>-0.1083078049702508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.005656757390673305</v>
+        <v>0.01889130054632491</v>
       </c>
       <c r="C47">
-        <v>0.1128420311518807</v>
+        <v>-0.09976688537371124</v>
       </c>
       <c r="D47">
-        <v>0.02174714135341181</v>
+        <v>-0.02639969830536935</v>
       </c>
       <c r="E47">
-        <v>0.04335195073273317</v>
+        <v>0.01656109555558285</v>
       </c>
       <c r="F47">
-        <v>0.02382335391741653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002096560448491422</v>
+      </c>
+      <c r="G47">
+        <v>0.0007675537357038487</v>
+      </c>
+      <c r="H47">
+        <v>-0.07853688991652333</v>
+      </c>
+      <c r="I47">
+        <v>-0.0348770078136952</v>
+      </c>
+      <c r="J47">
+        <v>-0.02577217624640232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0121012188326841</v>
+        <v>0.01633222824488742</v>
       </c>
       <c r="C48">
-        <v>0.04999120533472208</v>
+        <v>-0.05725775967423052</v>
       </c>
       <c r="D48">
-        <v>0.00928552252215809</v>
+        <v>-0.04174192018900651</v>
       </c>
       <c r="E48">
-        <v>-0.06719209406977744</v>
+        <v>-0.03683286680230967</v>
       </c>
       <c r="F48">
-        <v>-0.03563200577859914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0002016744285995206</v>
+      </c>
+      <c r="G48">
+        <v>0.02878672176023181</v>
+      </c>
+      <c r="H48">
+        <v>-0.1076261175692662</v>
+      </c>
+      <c r="I48">
+        <v>-0.006711009329204699</v>
+      </c>
+      <c r="J48">
+        <v>0.06745940709942069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.005002723913330591</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.00872235156801909</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009172320380404676</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.001938755420099837</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.003448687828218074</v>
+      </c>
+      <c r="G49">
+        <v>0.01472247249508803</v>
+      </c>
+      <c r="H49">
+        <v>0.01645255949819762</v>
+      </c>
+      <c r="I49">
+        <v>0.005906759932004874</v>
+      </c>
+      <c r="J49">
+        <v>0.0009838972881969319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.003248904613122372</v>
+        <v>0.01141139948104657</v>
       </c>
       <c r="C50">
-        <v>0.09452237799113269</v>
+        <v>-0.09137461263102811</v>
       </c>
       <c r="D50">
-        <v>0.01597531460370145</v>
+        <v>-0.01348934282413052</v>
       </c>
       <c r="E50">
-        <v>0.007794272796425597</v>
+        <v>0.003689887059764956</v>
       </c>
       <c r="F50">
-        <v>0.02780722453552109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01315411574790193</v>
+      </c>
+      <c r="G50">
+        <v>-0.021354381943329</v>
+      </c>
+      <c r="H50">
+        <v>-0.06346795064761274</v>
+      </c>
+      <c r="I50">
+        <v>-0.06279477186603161</v>
+      </c>
+      <c r="J50">
+        <v>-0.03822619767685437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003370743738503585</v>
+        <v>-0.005582659798479271</v>
       </c>
       <c r="C51">
-        <v>0.05770377812233845</v>
+        <v>-0.04079341191693519</v>
       </c>
       <c r="D51">
-        <v>-0.06181847734891355</v>
+        <v>-0.009205566114571646</v>
       </c>
       <c r="E51">
-        <v>-0.07531392933475267</v>
+        <v>-0.05328144778831722</v>
       </c>
       <c r="F51">
-        <v>-0.02324458403557458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.00728613043853281</v>
+      </c>
+      <c r="G51">
+        <v>0.02228788006018778</v>
+      </c>
+      <c r="H51">
+        <v>-0.0841627087671705</v>
+      </c>
+      <c r="I51">
+        <v>0.02885435399546275</v>
+      </c>
+      <c r="J51">
+        <v>0.1174574193129397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.03910055039738945</v>
+        <v>0.04967513856295993</v>
       </c>
       <c r="C53">
-        <v>0.1620515012039828</v>
+        <v>-0.1480649155050123</v>
       </c>
       <c r="D53">
-        <v>0.06654673194984696</v>
+        <v>-0.04558276434695055</v>
       </c>
       <c r="E53">
-        <v>0.05663483884705087</v>
+        <v>0.09201980956031429</v>
       </c>
       <c r="F53">
-        <v>-0.001355337283136362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.001781890213503606</v>
+      </c>
+      <c r="G53">
+        <v>-0.05135875323548131</v>
+      </c>
+      <c r="H53">
+        <v>-0.007952160882626918</v>
+      </c>
+      <c r="I53">
+        <v>-0.04895839755081274</v>
+      </c>
+      <c r="J53">
+        <v>-0.01745389293768017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.005642087687083921</v>
+        <v>0.01267257610720998</v>
       </c>
       <c r="C54">
-        <v>0.05799519971874221</v>
+        <v>-0.07111292080518661</v>
       </c>
       <c r="D54">
-        <v>-0.04100623860566448</v>
+        <v>0.007214916895250415</v>
       </c>
       <c r="E54">
-        <v>-0.02434571887222783</v>
+        <v>-0.02603227336979592</v>
       </c>
       <c r="F54">
-        <v>-0.02278489861289301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001961606576471345</v>
+      </c>
+      <c r="G54">
+        <v>0.02844111624174854</v>
+      </c>
+      <c r="H54">
+        <v>-0.07861870123515576</v>
+      </c>
+      <c r="I54">
+        <v>0.01574024488010279</v>
+      </c>
+      <c r="J54">
+        <v>-0.04015747721877911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02317894837199519</v>
+        <v>0.02706624883777208</v>
       </c>
       <c r="C55">
-        <v>0.1246830082028999</v>
+        <v>-0.1072188891718883</v>
       </c>
       <c r="D55">
-        <v>0.06305948412500954</v>
+        <v>-0.04838053436623947</v>
       </c>
       <c r="E55">
-        <v>0.02258651760498857</v>
+        <v>0.06733594612369836</v>
       </c>
       <c r="F55">
-        <v>0.00993974994544105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01399671539309007</v>
+      </c>
+      <c r="G55">
+        <v>-0.02416001268429737</v>
+      </c>
+      <c r="H55">
+        <v>-0.01783763289977842</v>
+      </c>
+      <c r="I55">
+        <v>-0.006999571653622199</v>
+      </c>
+      <c r="J55">
+        <v>-0.003659885839723992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04115984753167175</v>
+        <v>0.04242895556637809</v>
       </c>
       <c r="C56">
-        <v>0.1956453476957573</v>
+        <v>-0.1781474599204255</v>
       </c>
       <c r="D56">
-        <v>0.08554126582452388</v>
+        <v>-0.06878820900880653</v>
       </c>
       <c r="E56">
-        <v>0.09201426531673082</v>
+        <v>0.1273431349562694</v>
       </c>
       <c r="F56">
-        <v>0.04777770438233694</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.006344591271176011</v>
+      </c>
+      <c r="G56">
+        <v>-0.1067251268772004</v>
+      </c>
+      <c r="H56">
+        <v>-0.003471147002729181</v>
+      </c>
+      <c r="I56">
+        <v>-0.0418585112782138</v>
+      </c>
+      <c r="J56">
+        <v>0.02470382328582372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01348813988048866</v>
+        <v>0.009295419130970834</v>
       </c>
       <c r="C58">
-        <v>0.1824499343108361</v>
+        <v>-0.1690577774916098</v>
       </c>
       <c r="D58">
-        <v>-0.241132691827053</v>
+        <v>0.01789258365238327</v>
       </c>
       <c r="E58">
-        <v>-0.1906340817866159</v>
+        <v>-0.2918410990048264</v>
       </c>
       <c r="F58">
-        <v>0.1089318549097277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.06872335924156439</v>
+      </c>
+      <c r="G58">
+        <v>-0.1834126864842153</v>
+      </c>
+      <c r="H58">
+        <v>-0.02193236120724872</v>
+      </c>
+      <c r="I58">
+        <v>0.06056351458559998</v>
+      </c>
+      <c r="J58">
+        <v>0.3459947954525559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2580832452740721</v>
+        <v>0.276580618306613</v>
       </c>
       <c r="C59">
-        <v>-0.01083362936400623</v>
+        <v>0.03069127063190702</v>
       </c>
       <c r="D59">
-        <v>-0.06577672838066941</v>
+        <v>0.009746666343393693</v>
       </c>
       <c r="E59">
-        <v>-0.008087963730239161</v>
+        <v>-0.049739184894587</v>
       </c>
       <c r="F59">
-        <v>0.007626524688119137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01601519678176365</v>
+      </c>
+      <c r="G59">
+        <v>-0.00836201143158947</v>
+      </c>
+      <c r="H59">
+        <v>0.02338728954482758</v>
+      </c>
+      <c r="I59">
+        <v>-0.09949060278458807</v>
+      </c>
+      <c r="J59">
+        <v>0.009255437398982647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1176638335909011</v>
+        <v>0.145315735707769</v>
       </c>
       <c r="C60">
-        <v>0.152788619846124</v>
+        <v>-0.1620155468717648</v>
       </c>
       <c r="D60">
-        <v>0.05445881373717876</v>
+        <v>-0.033332173985272</v>
       </c>
       <c r="E60">
-        <v>0.002015976142203054</v>
+        <v>0.04601889431869002</v>
       </c>
       <c r="F60">
-        <v>-0.2213072455997863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.08507429027684198</v>
+      </c>
+      <c r="G60">
+        <v>0.2275009695511367</v>
+      </c>
+      <c r="H60">
+        <v>0.2794695526620029</v>
+      </c>
+      <c r="I60">
+        <v>0.07101960312355281</v>
+      </c>
+      <c r="J60">
+        <v>0.01159545941077426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.004166646189930024</v>
+        <v>0.01398320191696414</v>
       </c>
       <c r="C61">
-        <v>0.09617514401518573</v>
+        <v>-0.1070515004124057</v>
       </c>
       <c r="D61">
-        <v>0.00356551881950336</v>
+        <v>-0.03274600473197226</v>
       </c>
       <c r="E61">
-        <v>-0.03602238810975351</v>
+        <v>-0.01217962842790346</v>
       </c>
       <c r="F61">
-        <v>-0.07090937276297815</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.004698187590864456</v>
+      </c>
+      <c r="G61">
+        <v>0.05367308751676949</v>
+      </c>
+      <c r="H61">
+        <v>-0.04238550581102503</v>
+      </c>
+      <c r="I61">
+        <v>0.006109184688361477</v>
+      </c>
+      <c r="J61">
+        <v>-0.03690544574295918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0002715181858029053</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.006091817786458841</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005121786298501606</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01406908602570247</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.001002562188964656</v>
+      </c>
+      <c r="G62">
+        <v>0.0167286643189483</v>
+      </c>
+      <c r="H62">
+        <v>-0.01151650301537564</v>
+      </c>
+      <c r="I62">
+        <v>0.00821024069387854</v>
+      </c>
+      <c r="J62">
+        <v>-0.01152089356910796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.006211050786672178</v>
+        <v>0.016494486283589</v>
       </c>
       <c r="C63">
-        <v>0.06175892189651428</v>
+        <v>-0.07541949931634999</v>
       </c>
       <c r="D63">
-        <v>-0.01203237151907163</v>
+        <v>-0.03431533993281544</v>
       </c>
       <c r="E63">
-        <v>-0.03576040141435586</v>
+        <v>-0.02612636738178711</v>
       </c>
       <c r="F63">
-        <v>-0.0484247446343856</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.004969286426788229</v>
+      </c>
+      <c r="G63">
+        <v>0.04175846942379446</v>
+      </c>
+      <c r="H63">
+        <v>-0.06157434689492624</v>
+      </c>
+      <c r="I63">
+        <v>-0.02289127359924956</v>
+      </c>
+      <c r="J63">
+        <v>-0.01988452186831426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.004535522284251195</v>
+        <v>0.01312017936488898</v>
       </c>
       <c r="C64">
-        <v>0.1270027908731884</v>
+        <v>-0.107431657331537</v>
       </c>
       <c r="D64">
-        <v>0.05439452538273055</v>
+        <v>-0.02382312425623306</v>
       </c>
       <c r="E64">
-        <v>-0.01152603734971908</v>
+        <v>0.0008073635438825765</v>
       </c>
       <c r="F64">
-        <v>-0.04220841552664041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02832011024240899</v>
+      </c>
+      <c r="G64">
+        <v>0.01431688473041215</v>
+      </c>
+      <c r="H64">
+        <v>-0.01016683579203745</v>
+      </c>
+      <c r="I64">
+        <v>0.005739279935504074</v>
+      </c>
+      <c r="J64">
+        <v>-0.04370083787259403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01549209687084257</v>
+        <v>0.02486841498291788</v>
       </c>
       <c r="C65">
-        <v>0.07112184152429284</v>
+        <v>-0.08799425347312978</v>
       </c>
       <c r="D65">
-        <v>-0.04558287152107674</v>
+        <v>0.003694626525906038</v>
       </c>
       <c r="E65">
-        <v>-0.07259696289015753</v>
+        <v>-0.08038704019455938</v>
       </c>
       <c r="F65">
-        <v>-0.0548113511697508</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01257217377783571</v>
+      </c>
+      <c r="G65">
+        <v>0.09945149614262642</v>
+      </c>
+      <c r="H65">
+        <v>0.01687598952397592</v>
+      </c>
+      <c r="I65">
+        <v>0.05947020543038981</v>
+      </c>
+      <c r="J65">
+        <v>0.03110753330317238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002685791305137893</v>
+        <v>0.005759692542392903</v>
       </c>
       <c r="C66">
-        <v>0.1556640079543311</v>
+        <v>-0.1606492101045518</v>
       </c>
       <c r="D66">
-        <v>-0.0588664465010486</v>
+        <v>-0.01756711518042686</v>
       </c>
       <c r="E66">
-        <v>-0.08393644042762599</v>
+        <v>-0.05596250253868826</v>
       </c>
       <c r="F66">
-        <v>-0.05960976030476615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.008271834289823896</v>
+      </c>
+      <c r="G66">
+        <v>0.03661930898621422</v>
+      </c>
+      <c r="H66">
+        <v>-0.03610370212800284</v>
+      </c>
+      <c r="I66">
+        <v>0.02817474490787561</v>
+      </c>
+      <c r="J66">
+        <v>0.005642647879753483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01691492711144147</v>
+        <v>0.0173006399202961</v>
       </c>
       <c r="C67">
-        <v>0.04634384757049699</v>
+        <v>-0.06035874482006764</v>
       </c>
       <c r="D67">
-        <v>0.03027788655670103</v>
+        <v>-0.03177716466805971</v>
       </c>
       <c r="E67">
-        <v>-0.02684065947951011</v>
+        <v>-0.008708473093437009</v>
       </c>
       <c r="F67">
-        <v>-0.02028126315794931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03463110473365912</v>
+      </c>
+      <c r="G67">
+        <v>0.04555619160701026</v>
+      </c>
+      <c r="H67">
+        <v>-0.0308190248139061</v>
+      </c>
+      <c r="I67">
+        <v>-0.02428058308143361</v>
+      </c>
+      <c r="J67">
+        <v>-0.06695826620377401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2623061948844386</v>
+        <v>0.288445225100268</v>
       </c>
       <c r="C68">
-        <v>-0.03054222376649887</v>
+        <v>0.03915481919455394</v>
       </c>
       <c r="D68">
-        <v>-0.0608504497606281</v>
+        <v>0.03406022387549978</v>
       </c>
       <c r="E68">
-        <v>-0.01325351465115507</v>
+        <v>-0.06298392841457058</v>
       </c>
       <c r="F68">
-        <v>0.04750057921468327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01391288191260484</v>
+      </c>
+      <c r="G68">
+        <v>-0.04316582199789035</v>
+      </c>
+      <c r="H68">
+        <v>0.02033675715801057</v>
+      </c>
+      <c r="I68">
+        <v>-0.08399966961347582</v>
+      </c>
+      <c r="J68">
+        <v>-0.00339489366049225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01139998090929377</v>
+        <v>0.008482067002211961</v>
       </c>
       <c r="C69">
-        <v>0.1075328796718296</v>
+        <v>-0.08020284622511399</v>
       </c>
       <c r="D69">
-        <v>0.0519873832341606</v>
+        <v>-0.02332551973014605</v>
       </c>
       <c r="E69">
-        <v>-0.003506660169675174</v>
+        <v>0.0177517471526825</v>
       </c>
       <c r="F69">
-        <v>0.02247636053184581</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004093834656197518</v>
+      </c>
+      <c r="G69">
+        <v>0.006512808750870961</v>
+      </c>
+      <c r="H69">
+        <v>-0.05835965149964478</v>
+      </c>
+      <c r="I69">
+        <v>-0.03131627083411916</v>
+      </c>
+      <c r="J69">
+        <v>-0.006481257399032816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2749122781794869</v>
+        <v>0.2751708600846396</v>
       </c>
       <c r="C71">
-        <v>-0.03941614667483237</v>
+        <v>0.06026633567639979</v>
       </c>
       <c r="D71">
-        <v>-0.04883543906255615</v>
+        <v>0.01739139745911689</v>
       </c>
       <c r="E71">
-        <v>0.02038001846714443</v>
+        <v>-0.03866367932666151</v>
       </c>
       <c r="F71">
-        <v>-0.03125515722323221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03478738391975521</v>
+      </c>
+      <c r="G71">
+        <v>0.0008482401044750232</v>
+      </c>
+      <c r="H71">
+        <v>-0.04970462650350461</v>
+      </c>
+      <c r="I71">
+        <v>-0.1122213875101534</v>
+      </c>
+      <c r="J71">
+        <v>0.0860531191145681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05308300048750371</v>
+        <v>0.05667383387060877</v>
       </c>
       <c r="C72">
-        <v>0.1868364555409613</v>
+        <v>-0.1595810920217652</v>
       </c>
       <c r="D72">
-        <v>0.04169636532030686</v>
+        <v>-0.01973964025690339</v>
       </c>
       <c r="E72">
-        <v>-0.06458410145344466</v>
+        <v>0.02141112080587903</v>
       </c>
       <c r="F72">
-        <v>-0.09059211931993599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02017135626973434</v>
+      </c>
+      <c r="G72">
+        <v>0.03293700799811969</v>
+      </c>
+      <c r="H72">
+        <v>0.05444699412694484</v>
+      </c>
+      <c r="I72">
+        <v>0.09245818165588358</v>
+      </c>
+      <c r="J72">
+        <v>-0.03051402747805977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09102252603089224</v>
+        <v>0.1441845073198353</v>
       </c>
       <c r="C73">
-        <v>0.1620734364271569</v>
+        <v>-0.205485562334658</v>
       </c>
       <c r="D73">
-        <v>0.1021150830565472</v>
+        <v>-0.0557242430073242</v>
       </c>
       <c r="E73">
-        <v>0.01113688546653329</v>
+        <v>0.1095883433784098</v>
       </c>
       <c r="F73">
-        <v>-0.3367880908523078</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09917824574091622</v>
+      </c>
+      <c r="G73">
+        <v>0.3923194286153883</v>
+      </c>
+      <c r="H73">
+        <v>0.3339608371132078</v>
+      </c>
+      <c r="I73">
+        <v>-0.004793295899350551</v>
+      </c>
+      <c r="J73">
+        <v>0.09880573680635005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02832754636900901</v>
+        <v>0.03562486485250923</v>
       </c>
       <c r="C74">
-        <v>0.1180828729718874</v>
+        <v>-0.1155010309125584</v>
       </c>
       <c r="D74">
-        <v>0.09559465955752428</v>
+        <v>-0.04355425435885593</v>
       </c>
       <c r="E74">
-        <v>0.05692024327998652</v>
+        <v>0.08074680483239714</v>
       </c>
       <c r="F74">
-        <v>0.02338800158787222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.00443360944047188</v>
+      </c>
+      <c r="G74">
+        <v>-0.03415653380981407</v>
+      </c>
+      <c r="H74">
+        <v>-0.01450998353112205</v>
+      </c>
+      <c r="I74">
+        <v>-0.01065947433372181</v>
+      </c>
+      <c r="J74">
+        <v>-0.003021264022922363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09117141232237566</v>
+        <v>0.06756932986117241</v>
       </c>
       <c r="C75">
-        <v>0.2136734565637639</v>
+        <v>-0.1948932069994608</v>
       </c>
       <c r="D75">
-        <v>0.2030083150565342</v>
+        <v>-0.08596450931337377</v>
       </c>
       <c r="E75">
-        <v>0.1636449694630213</v>
+        <v>0.2304185846434356</v>
       </c>
       <c r="F75">
-        <v>0.08086351750518907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.08293422568890498</v>
+      </c>
+      <c r="G75">
+        <v>-0.1506647127271485</v>
+      </c>
+      <c r="H75">
+        <v>0.01550716967717278</v>
+      </c>
+      <c r="I75">
+        <v>-0.0720003125005841</v>
+      </c>
+      <c r="J75">
+        <v>-0.05298105193430982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.03901785684445762</v>
+        <v>0.03861517543585453</v>
       </c>
       <c r="C76">
-        <v>0.1475845394451802</v>
+        <v>-0.1425009283511219</v>
       </c>
       <c r="D76">
-        <v>0.1011947886515025</v>
+        <v>-0.07292914105768741</v>
       </c>
       <c r="E76">
-        <v>0.05803759498532363</v>
+        <v>0.1096132061206074</v>
       </c>
       <c r="F76">
-        <v>0.004802781082630591</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0006054382806182671</v>
+      </c>
+      <c r="G76">
+        <v>-0.03207773334840545</v>
+      </c>
+      <c r="H76">
+        <v>-0.0134763144473069</v>
+      </c>
+      <c r="I76">
+        <v>-0.01726728011798966</v>
+      </c>
+      <c r="J76">
+        <v>-0.02606012657192972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.03069086196651104</v>
+        <v>0.02468161088703236</v>
       </c>
       <c r="C77">
-        <v>0.1686612581225381</v>
+        <v>-0.2478745414283287</v>
       </c>
       <c r="D77">
-        <v>-0.6455352253366639</v>
+        <v>0.9464312424032589</v>
       </c>
       <c r="E77">
-        <v>0.6499182439086284</v>
+        <v>0.1523106802351778</v>
       </c>
       <c r="F77">
-        <v>-0.1156745181310644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02379778533372115</v>
+      </c>
+      <c r="G77">
+        <v>0.003427574740607527</v>
+      </c>
+      <c r="H77">
+        <v>-0.04762208629153843</v>
+      </c>
+      <c r="I77">
+        <v>0.0197030425715312</v>
+      </c>
+      <c r="J77">
+        <v>-0.008645783549086827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02392387898314625</v>
+        <v>0.02528466812317243</v>
       </c>
       <c r="C78">
-        <v>0.1556624237341241</v>
+        <v>-0.1267748524645451</v>
       </c>
       <c r="D78">
-        <v>-0.05783807016627657</v>
+        <v>-0.06201407078129129</v>
       </c>
       <c r="E78">
-        <v>-0.09598754489859375</v>
+        <v>-0.03832737290532579</v>
       </c>
       <c r="F78">
-        <v>0.1185943985771623</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02198154743726764</v>
+      </c>
+      <c r="G78">
+        <v>-0.07808482834644803</v>
+      </c>
+      <c r="H78">
+        <v>-0.132720787771732</v>
+      </c>
+      <c r="I78">
+        <v>0.1554752820941168</v>
+      </c>
+      <c r="J78">
+        <v>0.4974408694740904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05188269727673303</v>
+        <v>0.05588271266117637</v>
       </c>
       <c r="C79">
-        <v>0.2458481855486511</v>
+        <v>-0.1862387111981539</v>
       </c>
       <c r="D79">
-        <v>0.1751550372601064</v>
+        <v>-0.06897653425426398</v>
       </c>
       <c r="E79">
-        <v>0.138854062456587</v>
+        <v>0.182561277795349</v>
       </c>
       <c r="F79">
-        <v>0.1785220113177989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.006693225075464195</v>
+      </c>
+      <c r="G79">
+        <v>-0.1954823617891092</v>
+      </c>
+      <c r="H79">
+        <v>-0.06132898910621285</v>
+      </c>
+      <c r="I79">
+        <v>-0.08578232535683206</v>
+      </c>
+      <c r="J79">
+        <v>0.02165495557579612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0175697721409355</v>
+        <v>0.005961555908603068</v>
       </c>
       <c r="C80">
-        <v>0.06963399159005401</v>
+        <v>-0.06348334385164381</v>
       </c>
       <c r="D80">
-        <v>0.02796908896151769</v>
+        <v>-0.04170106881839077</v>
       </c>
       <c r="E80">
-        <v>-0.01337352916780235</v>
+        <v>-0.02808001706660489</v>
       </c>
       <c r="F80">
-        <v>-0.01246137030860753</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.07045502313242293</v>
+      </c>
+      <c r="G80">
+        <v>0.04442516376082542</v>
+      </c>
+      <c r="H80">
+        <v>0.05234265694864255</v>
+      </c>
+      <c r="I80">
+        <v>-0.05693722759173971</v>
+      </c>
+      <c r="J80">
+        <v>-0.07609798374763357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03120621795774425</v>
+        <v>0.02109350897533208</v>
       </c>
       <c r="C81">
-        <v>0.1289185825173116</v>
+        <v>-0.1185623324308223</v>
       </c>
       <c r="D81">
-        <v>0.1249944672902871</v>
+        <v>-0.04491252507630417</v>
       </c>
       <c r="E81">
-        <v>0.114047014834404</v>
+        <v>0.1027101905036741</v>
       </c>
       <c r="F81">
-        <v>0.05060480294797783</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01376497437149857</v>
+      </c>
+      <c r="G81">
+        <v>-0.09179425437578918</v>
+      </c>
+      <c r="H81">
+        <v>-0.07077655302154334</v>
+      </c>
+      <c r="I81">
+        <v>-0.08794630334294609</v>
+      </c>
+      <c r="J81">
+        <v>-0.0313298906664482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05430681826277663</v>
+        <v>0.04850614490736881</v>
       </c>
       <c r="C82">
-        <v>0.1559893620918615</v>
+        <v>-0.1322648733919106</v>
       </c>
       <c r="D82">
-        <v>0.1358827719106135</v>
+        <v>-0.06994212113121695</v>
       </c>
       <c r="E82">
-        <v>0.0850989844448316</v>
+        <v>0.1247480500559402</v>
       </c>
       <c r="F82">
-        <v>0.01391082231646518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0004006215648880461</v>
+      </c>
+      <c r="G82">
+        <v>-0.06190389179841781</v>
+      </c>
+      <c r="H82">
+        <v>-0.03206256817641646</v>
+      </c>
+      <c r="I82">
+        <v>-0.05381092484841774</v>
+      </c>
+      <c r="J82">
+        <v>-0.01468630360394915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.003707254953077089</v>
+        <v>0.004618083081459701</v>
       </c>
       <c r="C83">
-        <v>0.04900683975412471</v>
+        <v>-0.01125688054952964</v>
       </c>
       <c r="D83">
-        <v>-0.1195280557835527</v>
+        <v>0.04263002457552701</v>
       </c>
       <c r="E83">
-        <v>0.08088641196457762</v>
+        <v>-0.08388101493824625</v>
       </c>
       <c r="F83">
-        <v>0.5840994607141683</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.9235102720911581</v>
+      </c>
+      <c r="G83">
+        <v>-0.237837343772338</v>
+      </c>
+      <c r="H83">
+        <v>0.04878516971935674</v>
+      </c>
+      <c r="I83">
+        <v>-0.1231096200497304</v>
+      </c>
+      <c r="J83">
+        <v>-0.01293199616894984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.00245539707470108</v>
+        <v>-0.001831027117341407</v>
       </c>
       <c r="C84">
-        <v>0.03270041314103221</v>
+        <v>-0.03847367679776587</v>
       </c>
       <c r="D84">
-        <v>-0.0250206776964827</v>
+        <v>-0.04506284568355143</v>
       </c>
       <c r="E84">
-        <v>-0.08803840708654337</v>
+        <v>-0.07525159459376927</v>
       </c>
       <c r="F84">
-        <v>0.01583911757187916</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.04924400554660005</v>
+      </c>
+      <c r="G84">
+        <v>-0.04051528755821971</v>
+      </c>
+      <c r="H84">
+        <v>-0.06527459220744641</v>
+      </c>
+      <c r="I84">
+        <v>0.0464837225375368</v>
+      </c>
+      <c r="J84">
+        <v>-0.07789945437624746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03673944454247628</v>
+        <v>0.030526044764307</v>
       </c>
       <c r="C85">
-        <v>0.1718660601741874</v>
+        <v>-0.1415093799115709</v>
       </c>
       <c r="D85">
-        <v>0.147635943955492</v>
+        <v>-0.0833196458140084</v>
       </c>
       <c r="E85">
-        <v>0.1038545680795372</v>
+        <v>0.176952030481706</v>
       </c>
       <c r="F85">
-        <v>0.1281972225188834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.008747874747604616</v>
+      </c>
+      <c r="G85">
+        <v>-0.1267449712619556</v>
+      </c>
+      <c r="H85">
+        <v>-0.02003786757863575</v>
+      </c>
+      <c r="I85">
+        <v>-0.07421284327012652</v>
+      </c>
+      <c r="J85">
+        <v>-0.04426826204257808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03338519199000036</v>
+        <v>0.01814383437798648</v>
       </c>
       <c r="C86">
-        <v>0.04957189789154706</v>
+        <v>-0.07117133712229501</v>
       </c>
       <c r="D86">
-        <v>-0.0901018623660851</v>
+        <v>0.00412032285288965</v>
       </c>
       <c r="E86">
-        <v>-0.01794163696647073</v>
+        <v>-0.06533451567930292</v>
       </c>
       <c r="F86">
-        <v>-0.0572863752572224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.04930470167370016</v>
+      </c>
+      <c r="G86">
+        <v>-0.06173501342508323</v>
+      </c>
+      <c r="H86">
+        <v>-0.08275271601694995</v>
+      </c>
+      <c r="I86">
+        <v>-0.05618200651349482</v>
+      </c>
+      <c r="J86">
+        <v>0.188222808158787</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02644789624719153</v>
+        <v>0.01664180781578191</v>
       </c>
       <c r="C87">
-        <v>0.1261907127769283</v>
+        <v>-0.1246406558812682</v>
       </c>
       <c r="D87">
-        <v>-0.09546937596817037</v>
+        <v>0.01413205340763375</v>
       </c>
       <c r="E87">
-        <v>-0.1022123673493105</v>
+        <v>-0.1015307410101718</v>
       </c>
       <c r="F87">
-        <v>-0.004763518560641271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01984900169491853</v>
+      </c>
+      <c r="G87">
+        <v>-0.02465845177357361</v>
+      </c>
+      <c r="H87">
+        <v>-0.01499463315738063</v>
+      </c>
+      <c r="I87">
+        <v>0.1387769834597792</v>
+      </c>
+      <c r="J87">
+        <v>0.0866107468932856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.02056867868900678</v>
+        <v>0.03505677511118081</v>
       </c>
       <c r="C88">
-        <v>0.07534549224580898</v>
+        <v>-0.08365800197015412</v>
       </c>
       <c r="D88">
-        <v>0.06289388225006896</v>
+        <v>-0.02869813413466409</v>
       </c>
       <c r="E88">
-        <v>0.01669711660920842</v>
+        <v>0.02039079626408361</v>
       </c>
       <c r="F88">
-        <v>-0.02738385559643842</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01070478636312887</v>
+      </c>
+      <c r="G88">
+        <v>0.02208583297250022</v>
+      </c>
+      <c r="H88">
+        <v>0.001561825048385315</v>
+      </c>
+      <c r="I88">
+        <v>-0.02377089450541948</v>
+      </c>
+      <c r="J88">
+        <v>-0.07660348674398186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4481751811451203</v>
+        <v>0.4086532625371578</v>
       </c>
       <c r="C89">
-        <v>-0.08816422192959435</v>
+        <v>0.1115030066589604</v>
       </c>
       <c r="D89">
-        <v>0.06314009792174158</v>
+        <v>0.009760497651573906</v>
       </c>
       <c r="E89">
-        <v>-0.2568203269307843</v>
+        <v>-0.05795417701620542</v>
       </c>
       <c r="F89">
-        <v>0.1537733845153383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.09607331521447751</v>
+      </c>
+      <c r="G89">
+        <v>-0.08363873750108673</v>
+      </c>
+      <c r="H89">
+        <v>-0.06569293671797814</v>
+      </c>
+      <c r="I89">
+        <v>0.759025416741306</v>
+      </c>
+      <c r="J89">
+        <v>-0.1354977952189054</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3229357400197094</v>
+        <v>0.3237117015133299</v>
       </c>
       <c r="C90">
-        <v>-0.04234432401710679</v>
+        <v>0.06108477203649713</v>
       </c>
       <c r="D90">
-        <v>-0.06759347472721161</v>
+        <v>0.01817591078137101</v>
       </c>
       <c r="E90">
-        <v>0.01065295818496258</v>
+        <v>-0.03850054819578042</v>
       </c>
       <c r="F90">
-        <v>0.01400709554812382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01727252317707047</v>
+      </c>
+      <c r="G90">
+        <v>-0.02101738474359448</v>
+      </c>
+      <c r="H90">
+        <v>0.007861855058163666</v>
+      </c>
+      <c r="I90">
+        <v>-0.1564393687234678</v>
+      </c>
+      <c r="J90">
+        <v>0.009116387619480375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.0395634230467845</v>
+        <v>0.04997578606732516</v>
       </c>
       <c r="C91">
-        <v>0.1370553482371139</v>
+        <v>-0.1184357052404135</v>
       </c>
       <c r="D91">
-        <v>0.08289871428646446</v>
+        <v>-0.03595092150810227</v>
       </c>
       <c r="E91">
-        <v>0.07400842266004759</v>
+        <v>0.09540210685143102</v>
       </c>
       <c r="F91">
-        <v>0.05990845211691771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.02955751182349861</v>
+      </c>
+      <c r="G91">
+        <v>-0.0701762856954017</v>
+      </c>
+      <c r="H91">
+        <v>-0.01247673867783549</v>
+      </c>
+      <c r="I91">
+        <v>-0.0285966662856885</v>
+      </c>
+      <c r="J91">
+        <v>-0.03304960449827777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3493208402151656</v>
+        <v>0.3497427022624445</v>
       </c>
       <c r="C92">
-        <v>-0.0942372061501634</v>
+        <v>0.1108589456005359</v>
       </c>
       <c r="D92">
-        <v>-0.06308716373811851</v>
+        <v>0.04557426752397632</v>
       </c>
       <c r="E92">
-        <v>0.01251638584971466</v>
+        <v>-0.06476308708482445</v>
       </c>
       <c r="F92">
-        <v>-0.07190326198193371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09971671679066992</v>
+      </c>
+      <c r="G92">
+        <v>-0.002574049657233067</v>
+      </c>
+      <c r="H92">
+        <v>-0.04743436013092943</v>
+      </c>
+      <c r="I92">
+        <v>-0.1520477432088015</v>
+      </c>
+      <c r="J92">
+        <v>-0.01273054809900189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3347456878564336</v>
+        <v>0.3248997773960809</v>
       </c>
       <c r="C93">
-        <v>-0.07758184983592858</v>
+        <v>0.1031579182963174</v>
       </c>
       <c r="D93">
-        <v>0.01463527177668839</v>
+        <v>-0.004597169593223951</v>
       </c>
       <c r="E93">
-        <v>0.0289037106519945</v>
+        <v>0.003017492477552142</v>
       </c>
       <c r="F93">
-        <v>-0.004996661055097727</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01931095196102029</v>
+      </c>
+      <c r="G93">
+        <v>-0.03199468015145428</v>
+      </c>
+      <c r="H93">
+        <v>-0.03957039945203634</v>
+      </c>
+      <c r="I93">
+        <v>-0.1209293915851399</v>
+      </c>
+      <c r="J93">
+        <v>0.04437602875884603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08618292302642154</v>
+        <v>0.08294915070818593</v>
       </c>
       <c r="C94">
-        <v>0.2272772949318144</v>
+        <v>-0.1973369085704028</v>
       </c>
       <c r="D94">
-        <v>0.2431271038489334</v>
+        <v>-0.1108876253305149</v>
       </c>
       <c r="E94">
-        <v>0.1489538258041533</v>
+        <v>0.3216946534991502</v>
       </c>
       <c r="F94">
-        <v>0.2301319066579413</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.03938832474452245</v>
+      </c>
+      <c r="G94">
+        <v>-0.3756686839123589</v>
+      </c>
+      <c r="H94">
+        <v>0.03281925361871041</v>
+      </c>
+      <c r="I94">
+        <v>0.197041829667943</v>
+      </c>
+      <c r="J94">
+        <v>-0.1760302495459662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02122523263309704</v>
+        <v>0.0314909733688088</v>
       </c>
       <c r="C95">
-        <v>0.06904558991770525</v>
+        <v>-0.1150152157912873</v>
       </c>
       <c r="D95">
-        <v>0.005819411868212431</v>
+        <v>-0.007647909235427968</v>
       </c>
       <c r="E95">
-        <v>-0.008741817506383233</v>
+        <v>-0.004854981678331278</v>
       </c>
       <c r="F95">
-        <v>-0.1430892362817917</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02518518041723771</v>
+      </c>
+      <c r="G95">
+        <v>0.1302464915649903</v>
+      </c>
+      <c r="H95">
+        <v>-0.03639678575250998</v>
+      </c>
+      <c r="I95">
+        <v>0.01461012196927585</v>
+      </c>
+      <c r="J95">
+        <v>-0.1316172380955961</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004677401217589128</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.008091625074313661</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01963849690000882</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.01403936247368755</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01052765093344068</v>
+      </c>
+      <c r="G97">
+        <v>0.03716123364505245</v>
+      </c>
+      <c r="H97">
+        <v>0.01146257420681772</v>
+      </c>
+      <c r="I97">
+        <v>-0.006948584944304642</v>
+      </c>
+      <c r="J97">
+        <v>0.01394967311363965</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.07759407521312384</v>
+        <v>0.1264737435359617</v>
       </c>
       <c r="C98">
-        <v>0.1516365906198031</v>
+        <v>-0.1728407117378465</v>
       </c>
       <c r="D98">
-        <v>0.03701310788649994</v>
+        <v>-0.05897880262679009</v>
       </c>
       <c r="E98">
-        <v>-0.009756604901067844</v>
+        <v>0.07209554406832804</v>
       </c>
       <c r="F98">
-        <v>-0.2472881485193714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.06280482680511533</v>
+      </c>
+      <c r="G98">
+        <v>0.3364496260824946</v>
+      </c>
+      <c r="H98">
+        <v>0.3648649019999239</v>
+      </c>
+      <c r="I98">
+        <v>0.04200740997766091</v>
+      </c>
+      <c r="J98">
+        <v>0.1428461842597065</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.0004208701875856477</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.007003327552816264</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.007652330729436935</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.008801277088003953</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.01190210926698448</v>
+      </c>
+      <c r="G99">
+        <v>0.01012195564081902</v>
+      </c>
+      <c r="H99">
+        <v>-0.03922477169133685</v>
+      </c>
+      <c r="I99">
+        <v>0.01929245652225498</v>
+      </c>
+      <c r="J99">
+        <v>-0.004759913277621028</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0007575334171956093</v>
+        <v>0.006057236779913701</v>
       </c>
       <c r="C101">
-        <v>0.05827386785174893</v>
+        <v>-0.0800695593981125</v>
       </c>
       <c r="D101">
-        <v>-0.0391311553428453</v>
+        <v>-0.0206947942698298</v>
       </c>
       <c r="E101">
-        <v>-0.09348408581260112</v>
+        <v>-0.124388243153453</v>
       </c>
       <c r="F101">
-        <v>-0.08281146835683019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05099167306805934</v>
+      </c>
+      <c r="G101">
+        <v>0.1616128765429038</v>
+      </c>
+      <c r="H101">
+        <v>-0.2514829501563362</v>
+      </c>
+      <c r="I101">
+        <v>0.04414831449647028</v>
+      </c>
+      <c r="J101">
+        <v>-0.2363314218590994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01756453187410783</v>
+        <v>0.007647037183806567</v>
       </c>
       <c r="C102">
-        <v>0.08449451159259991</v>
+        <v>-0.04052443757910659</v>
       </c>
       <c r="D102">
-        <v>0.05909395092014925</v>
+        <v>-0.01739537207597335</v>
       </c>
       <c r="E102">
-        <v>0.04223110518311804</v>
+        <v>0.04705193326563849</v>
       </c>
       <c r="F102">
-        <v>0.04431528691908979</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0124672327917094</v>
+      </c>
+      <c r="G102">
+        <v>-0.04297174193298511</v>
+      </c>
+      <c r="H102">
+        <v>-0.01300158805109858</v>
+      </c>
+      <c r="I102">
+        <v>0.006634143546536864</v>
+      </c>
+      <c r="J102">
+        <v>-0.005369984709263676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
